--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/МСЗ ИБПО_LAR (Средний возраст)(01.09.2015 23-56-43).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/МСЗ ИБПО_LAR (Средний возраст)(01.09.2015 23-56-43).xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ИБПО (Средний возраст)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
   <si>
     <t>Возрастные группы</t>
   </si>
@@ -82,12 +72,15 @@
   </si>
   <si>
     <t>Взвешенные величины</t>
+  </si>
+  <si>
+    <t>Б</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -162,8 +155,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -177,14 +184,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -231,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,17 +442,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -754,6 +755,310 @@
       </c>
       <c r="G13" s="3">
         <v>51.271156570000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5">
+        <v>89.688628651288084</v>
+      </c>
+      <c r="C18" s="5">
+        <v>90.624553340501222</v>
+      </c>
+      <c r="D18" s="5">
+        <v>82.073333772544416</v>
+      </c>
+      <c r="E18" s="5">
+        <v>70.395633549991288</v>
+      </c>
+      <c r="F18" s="5">
+        <v>78.624305831642587</v>
+      </c>
+      <c r="G18" s="5">
+        <v>59.087168261321033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="5">
+        <v>88.556639729776293</v>
+      </c>
+      <c r="C19" s="5">
+        <v>86.874965980522177</v>
+      </c>
+      <c r="D19" s="5">
+        <v>78.106611185190175</v>
+      </c>
+      <c r="E19" s="5">
+        <v>64.290079708779544</v>
+      </c>
+      <c r="F19" s="5">
+        <v>68.869189548091882</v>
+      </c>
+      <c r="G19" s="5">
+        <v>49.813663075458201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5">
+        <v>88.060600686219047</v>
+      </c>
+      <c r="C20" s="5">
+        <v>82.735024393648459</v>
+      </c>
+      <c r="D20" s="5">
+        <v>74.390241663702852</v>
+      </c>
+      <c r="E20" s="5">
+        <v>63.943737947116098</v>
+      </c>
+      <c r="F20" s="5">
+        <v>58.069040497079143</v>
+      </c>
+      <c r="G20" s="5">
+        <v>43.745047252098438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5">
+        <v>87.805901719234384</v>
+      </c>
+      <c r="C21" s="5">
+        <v>83.207330348189728</v>
+      </c>
+      <c r="D21" s="5">
+        <v>74.587915526938204</v>
+      </c>
+      <c r="E21" s="5">
+        <v>65.512137878805063</v>
+      </c>
+      <c r="F21" s="5">
+        <v>58.150968211927768</v>
+      </c>
+      <c r="G21" s="5">
+        <v>44.521183227607125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="5">
+        <v>89.719103984623061</v>
+      </c>
+      <c r="C22" s="5">
+        <v>82.853205090564856</v>
+      </c>
+      <c r="D22" s="5">
+        <v>75.668657760236883</v>
+      </c>
+      <c r="E22" s="5">
+        <v>69.697790541323513</v>
+      </c>
+      <c r="F22" s="5">
+        <v>57.406504581308731</v>
+      </c>
+      <c r="G22" s="5">
+        <v>45.939930605480697</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="5">
+        <v>92.532197418956088</v>
+      </c>
+      <c r="C23" s="5">
+        <v>84.588026115253513</v>
+      </c>
+      <c r="D23" s="5">
+        <v>79.182090686140967</v>
+      </c>
+      <c r="E23" s="5">
+        <v>76.000645425607601</v>
+      </c>
+      <c r="F23" s="5">
+        <v>57.640105429652614</v>
+      </c>
+      <c r="G23" s="5">
+        <v>48.763657968572794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5">
+        <v>94.640091402970356</v>
+      </c>
+      <c r="C24" s="5">
+        <v>85.738268708144517</v>
+      </c>
+      <c r="D24" s="5">
+        <v>81.767413769572826</v>
+      </c>
+      <c r="E24" s="5">
+        <v>81.364172561319805</v>
+      </c>
+      <c r="F24" s="5">
+        <v>59.379931277000424</v>
+      </c>
+      <c r="G24" s="5">
+        <v>52.270148548678357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="5">
+        <v>96.140752803572283</v>
+      </c>
+      <c r="C25" s="5">
+        <v>87.927637860831268</v>
+      </c>
+      <c r="D25" s="5">
+        <v>84.929557853178636</v>
+      </c>
+      <c r="E25" s="5">
+        <v>85.224025230975343</v>
+      </c>
+      <c r="F25" s="5">
+        <v>72.065131397182085</v>
+      </c>
+      <c r="G25" s="5">
+        <v>64.060250635259621</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="5">
+        <v>97.641428821577264</v>
+      </c>
+      <c r="C26" s="5">
+        <v>91.677918165347975</v>
+      </c>
+      <c r="D26" s="5">
+        <v>89.691385188686766</v>
+      </c>
+      <c r="E26" s="5">
+        <v>93.64911266133069</v>
+      </c>
+      <c r="F26" s="5">
+        <v>82.693262273937862</v>
+      </c>
+      <c r="G26" s="5">
+        <v>78.301609118355572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="6">
+        <v>91.536861389999999</v>
+      </c>
+      <c r="C29" s="6">
+        <v>85.547685479999998</v>
+      </c>
+      <c r="D29" s="6">
+        <v>79.336161860000004</v>
+      </c>
+      <c r="E29" s="6">
+        <v>73.885550350000003</v>
+      </c>
+      <c r="F29" s="6">
+        <v>63.374580999999999</v>
+      </c>
+      <c r="G29" s="6">
+        <v>51.875931940000001</v>
       </c>
     </row>
   </sheetData>
@@ -762,10 +1067,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1068,6 +1375,310 @@
         <v>48.623381569999999</v>
       </c>
     </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8">
+        <v>86.529647709520049</v>
+      </c>
+      <c r="C18" s="8">
+        <v>87.029486087222438</v>
+      </c>
+      <c r="D18" s="8">
+        <v>76.645390562301856</v>
+      </c>
+      <c r="E18" s="8">
+        <v>71.413674615198133</v>
+      </c>
+      <c r="F18" s="8">
+        <v>80.160892674508091</v>
+      </c>
+      <c r="G18" s="8">
+        <v>60.687538864490072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8">
+        <v>93.781374813563559</v>
+      </c>
+      <c r="C19" s="8">
+        <v>85.509913227588257</v>
+      </c>
+      <c r="D19" s="8">
+        <v>80.921494223756213</v>
+      </c>
+      <c r="E19" s="8">
+        <v>84.18899376640455</v>
+      </c>
+      <c r="F19" s="8">
+        <v>67.752225070976962</v>
+      </c>
+      <c r="G19" s="8">
+        <v>60.104384885898206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8">
+        <v>91.303128077359204</v>
+      </c>
+      <c r="C20" s="8">
+        <v>76.424171372161652</v>
+      </c>
+      <c r="D20" s="8">
+        <v>71.238056990451071</v>
+      </c>
+      <c r="E20" s="8">
+        <v>71.622212663970899</v>
+      </c>
+      <c r="F20" s="8">
+        <v>56.000607438854949</v>
+      </c>
+      <c r="G20" s="8">
+        <v>45.831092487845716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8">
+        <v>94.802009601030235</v>
+      </c>
+      <c r="C21" s="8">
+        <v>83.184267897237135</v>
+      </c>
+      <c r="D21" s="8">
+        <v>79.555579391149521</v>
+      </c>
+      <c r="E21" s="8">
+        <v>78.813287572608047</v>
+      </c>
+      <c r="F21" s="8">
+        <v>63.842373144064844</v>
+      </c>
+      <c r="G21" s="8">
+        <v>54.490355730235251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8">
+        <v>92.938541948636143</v>
+      </c>
+      <c r="C22" s="8">
+        <v>77.838231094811604</v>
+      </c>
+      <c r="D22" s="8">
+        <v>73.491448097888764</v>
+      </c>
+      <c r="E22" s="8">
+        <v>78.055178422580411</v>
+      </c>
+      <c r="F22" s="8">
+        <v>52.333275909644691</v>
+      </c>
+      <c r="G22" s="8">
+        <v>45.620474510735711</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8">
+        <v>94.6921891972884</v>
+      </c>
+      <c r="C23" s="8">
+        <v>80.585714125003648</v>
+      </c>
+      <c r="D23" s="8">
+        <v>77.102162522180947</v>
+      </c>
+      <c r="E23" s="8">
+        <v>79.706789859502052</v>
+      </c>
+      <c r="F23" s="8">
+        <v>60.067626757146925</v>
+      </c>
+      <c r="G23" s="8">
+        <v>52.098931854628674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="8">
+        <v>95.100000102564223</v>
+      </c>
+      <c r="C24" s="8">
+        <v>79.740275738833731</v>
+      </c>
+      <c r="D24" s="8">
+        <v>76.592375890550372</v>
+      </c>
+      <c r="E24" s="8">
+        <v>82.574482382443051</v>
+      </c>
+      <c r="F24" s="8">
+        <v>53.805559243800765</v>
+      </c>
+      <c r="G24" s="8">
+        <v>48.317798108674396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8">
+        <v>92.720331267945738</v>
+      </c>
+      <c r="C25" s="8">
+        <v>82.965029242446661</v>
+      </c>
+      <c r="D25" s="8">
+        <v>77.890658465201383</v>
+      </c>
+      <c r="E25" s="8">
+        <v>78.375067664889443</v>
+      </c>
+      <c r="F25" s="8">
+        <v>66.747855137999125</v>
+      </c>
+      <c r="G25" s="8">
+        <v>56.365843790013848</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8">
+        <v>95.371764689240862</v>
+      </c>
+      <c r="C26" s="8">
+        <v>83.175837973126306</v>
+      </c>
+      <c r="D26" s="8">
+        <v>79.947512766424239</v>
+      </c>
+      <c r="E26" s="8">
+        <v>94.775394381012731</v>
+      </c>
+      <c r="F26" s="8">
+        <v>83.380345794392213</v>
+      </c>
+      <c r="G26" s="8">
+        <v>79.71496271704072</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="9">
+        <v>93.978271390000003</v>
+      </c>
+      <c r="C29" s="9">
+        <v>80.502713639999996</v>
+      </c>
+      <c r="D29" s="9">
+        <v>76.553825889999999</v>
+      </c>
+      <c r="E29" s="9">
+        <v>79.761704859999995</v>
+      </c>
+      <c r="F29" s="9">
+        <v>58.789439450000003</v>
+      </c>
+      <c r="G29" s="9">
+        <v>51.105636150000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/МСЗ ИБПО_LAR (Средний возраст)(01.09.2015 23-56-43).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/МСЗ ИБПО_LAR (Средний возраст)(01.09.2015 23-56-43).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ИБПО (Средний возраст)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
   </bookViews>
@@ -10,6 +15,9 @@
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -80,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -184,7 +192,8833 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внешнее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>мужчины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>88.782428789006389</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.487277892717344</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.694005843436443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.434939349241191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.678658106798807</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.584834578742047</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.754554651172285</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.273576680197408</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.943705074017629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$B$18:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>89.688628651288084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.556639729776293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.060600686219047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.805901719234384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.719103984623061</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.532197418956088</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.640091402970356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.140752803572283</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.641428821577264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>68.494460313437884</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.435790007389926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.283099601114039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.966212262634997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.345513039320096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.069311628400214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.774556097186434</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.701086971968522</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.125836500021606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$E$18:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>70.395633549991288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.290079708779544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.943737947116098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.512137878805063</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.697790541323513</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.000645425607601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.364172561319805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.224025230975343</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.64911266133069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="528200048"/>
+        <c:axId val="528203184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="528200048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528203184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528203184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528200048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>мужчины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>90.98319674033678</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.847829087692205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.59276856779293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.336205113688308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.375788009446069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.352756567129333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.584625422556385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.742559371852565</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.312418472795997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$C$18:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>90.624553340501222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.874965980522177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.735024393648459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.207330348189728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.853205090564856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.588026115253513</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.738268708144517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.927637860831268</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.677918165347975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>79.269039079697947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.791609925177795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.60690439050434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.296069630611299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.384951045605114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.855331228959386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.993357814274269</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.387321668798094</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.387997561464644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$F$18:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>78.624305831642587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.869189548091882</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.069040497079143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.150968211927768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.406504581308731</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.640105429652614</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.379931277000424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.065131397182085</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.693262273937862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="528200832"/>
+        <c:axId val="528202008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="528200832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528202008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528202008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528200832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внешнее и внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>мужчины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>81.602454412495803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.252076269816513</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.300619818311787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.697105659108502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.354346144035077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.145319056290063</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.86251536376372</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.000050635020585</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.701542551865217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$D$18:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>82.073333772544416</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.106611185190175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.390241663702852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.587915526938204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.668657760236883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.182090686140967</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.767413769572826</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.929557853178636</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.691385188686766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>58.088891293071995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.044935264040298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.235345562297418</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.411049350307529</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.502586100248458</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.799674052471055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.383641549972054</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.620261428770696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.710212707448392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$G$18:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>59.087168261321033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.813663075458201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.745047252098438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.521183227607125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.939930605480697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.763657968572794</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.270148548678357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.060250635259621</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.301609118355572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="528201616"/>
+        <c:axId val="528202400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="528201616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528202400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528202400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528201616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внешнее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>86.145367231552413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.394588117051256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.406945515832149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.037669675817384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.442663414373413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.028215424406071</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.207201928949402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.083365157303064</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.064508920635703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$B$18:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>86.529647709520049</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.781374813563559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.303128077359204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.802009601030235</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.938541948636143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.6921891972884</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.100000102564223</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.720331267945738</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.371764689240862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>70.802432634910673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.763231944913954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.218636997741726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.296481263660311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.715571692861431</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.869867559085776</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.273748106309426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.29896452577286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.559670068333446</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$E$18:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>71.413674615198133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.18899376640455</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.622212663970899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.813287572608047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.055178422580411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.706789859502052</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.574482382443051</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.375067664889443</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.775394381012731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="528191816"/>
+        <c:axId val="528196520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="528191816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528196520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528196520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528191816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>86.941479576900832</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.028776564140045</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.284593284809034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.12819016346252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.408649058989084</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.124228642441707</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.900934979239352</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.897118008212104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.570501226101015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$C$18:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>87.029486087222438</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.509913227588257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.424171372161652</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.184267897237135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.838231094811604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.585714125003648</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.740275738833731</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.965029242446661</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.175837973126306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>80.052641423703363</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.892658368174423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.55010969893938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.130390720020742</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.225251470670045</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.180687244881909</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.355814304038375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.15378766387667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.484579347783693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$F$18:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>80.160892674508091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.752225070976962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.000607438854949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.842373144064844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.333275909644691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.067626757146925</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.805559243800765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.747855137999125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.380345794392213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="528187504"/>
+        <c:axId val="528192208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="528187504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528192208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528192208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528187504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внешнее и внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>76.276004221029211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.205385429146133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.715175489512319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.063093217197675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.915982854833644</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.337533920060011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.338905820208609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.959866771620781</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.67104299303567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$D$18:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>76.645390562301856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.921494223756213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.238056990451071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.555579391149521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.491448097888764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.102162522180947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.592375890550372</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.890658465201383</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.947512766424239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>60.184387080017451</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.214491575556345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.495871699416583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.077822132913305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.581116208896631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.924688563920235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.599592760771301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.501526672087813</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.258158907975286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$G$18:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>60.687538864490072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.104384885898206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.831092487845716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.490355730235251</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.620474510735711</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.098931854628674</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.317798108674396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.365843790013848</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.71496271704072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="528192600"/>
+        <c:axId val="528191424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="528192600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528191424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528191424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528192600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>153081</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>181657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>14970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>48307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>91170</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>153081</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>181657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>14970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>48307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>91170</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Мужчины"/>
+      <sheetName val="Женщины"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>18-24</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>25-29</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>30-34</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>35-39</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>40-44</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>45-49</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>50-54</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>55-59</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>60-64</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>65-69</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>70+</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>25-29</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,18 +9276,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:G29"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1063,15 +9897,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1681,5 +10516,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/МСЗ ИБПО_LAR (Средний возраст)(01.09.2015 23-56-43).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/МСЗ ИБПО_LAR (Средний возраст)(01.09.2015 23-56-43).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
@@ -237,29 +237,54 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
-              <a:t>Внешнее</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внутреннее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>мужчины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -268,26 +293,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -296,10 +301,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -378,36 +383,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$B$2:$B$10</c:f>
+              <c:f>Мужчины!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>88.782428789006389</c:v>
+                  <c:v>90.98319674033678</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.487277892717344</c:v>
+                  <c:v>86.847829087692205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.694005843436443</c:v>
+                  <c:v>82.59276856779293</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.434939349241191</c:v>
+                  <c:v>83.336205113688308</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.678658106798807</c:v>
+                  <c:v>83.375788009446069</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.584834578742047</c:v>
+                  <c:v>85.352756567129333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.754554651172285</c:v>
+                  <c:v>86.584625422556385</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95.273576680197408</c:v>
+                  <c:v>88.742559371852565</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96.943705074017629</c:v>
+                  <c:v>92.312418472795997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -487,36 +492,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$B$18:$B$26</c:f>
+              <c:f>Мужчины!$C$18:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>89.688628651288084</c:v>
+                  <c:v>90.624553340501222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.556639729776293</c:v>
+                  <c:v>86.874965980522177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.060600686219047</c:v>
+                  <c:v>82.735024393648459</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.805901719234384</c:v>
+                  <c:v>83.207330348189728</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.719103984623061</c:v>
+                  <c:v>82.853205090564856</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.532197418956088</c:v>
+                  <c:v>84.588026115253513</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.640091402970356</c:v>
+                  <c:v>85.738268708144517</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.140752803572283</c:v>
+                  <c:v>87.927637860831268</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97.641428821577264</c:v>
+                  <c:v>91.677918165347975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,36 +602,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$E$2:$E$10</c:f>
+              <c:f>Мужчины!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>68.494460313437884</c:v>
+                  <c:v>79.269039079697947</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.435790007389926</c:v>
+                  <c:v>68.791609925177795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.283099601114039</c:v>
+                  <c:v>57.60690439050434</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.966212262634997</c:v>
+                  <c:v>58.296069630611299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.345513039320096</c:v>
+                  <c:v>58.384951045605114</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.069311628400214</c:v>
+                  <c:v>58.855331228959386</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78.774556097186434</c:v>
+                  <c:v>60.993357814274269</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.701086971968522</c:v>
+                  <c:v>73.387321668798094</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92.125836500021606</c:v>
+                  <c:v>84.387997561464644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -707,36 +712,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$E$18:$E$26</c:f>
+              <c:f>Мужчины!$F$18:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>70.395633549991288</c:v>
+                  <c:v>78.624305831642587</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.290079708779544</c:v>
+                  <c:v>68.869189548091882</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.943737947116098</c:v>
+                  <c:v>58.069040497079143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.512137878805063</c:v>
+                  <c:v>58.150968211927768</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69.697790541323513</c:v>
+                  <c:v>57.406504581308731</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.000645425607601</c:v>
+                  <c:v>57.640105429652614</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.364172561319805</c:v>
+                  <c:v>59.379931277000424</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85.224025230975343</c:v>
+                  <c:v>72.065131397182085</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93.64911266133069</c:v>
+                  <c:v>82.693262273937862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -753,11 +758,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528200048"/>
-        <c:axId val="528203184"/>
+        <c:axId val="417103952"/>
+        <c:axId val="417105912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="528200048"/>
+        <c:axId val="417103952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -797,12 +802,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -811,26 +821,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -869,7 +859,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528203184"/>
+        <c:crossAx val="417105912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -877,11 +867,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="528203184"/>
+        <c:axId val="417105912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -919,8 +908,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1"/>
-                  <a:t>ИБПО,</a:t>
+                  <a:t>,</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
@@ -930,6 +927,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -938,26 +936,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -990,7 +968,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528200048"/>
+        <c:crossAx val="417103952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1009,10 +987,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17043289064522366"/>
+          <c:h val="0.76636949741416249"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1075,7 +1053,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1115,29 +1093,46 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
-              <a:t>Внутреннее</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Суммарное </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>мужчины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1146,26 +1141,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1174,10 +1149,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1256,36 +1231,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$C$2:$C$10</c:f>
+              <c:f>Мужчины!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>90.98319674033678</c:v>
+                  <c:v>81.602454412495803</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.847829087692205</c:v>
+                  <c:v>77.252076269816513</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.59276856779293</c:v>
+                  <c:v>73.300619818311787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.336205113688308</c:v>
+                  <c:v>73.697105659108502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.375788009446069</c:v>
+                  <c:v>75.354346144035077</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.352756567129333</c:v>
+                  <c:v>79.145319056290063</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86.584625422556385</c:v>
+                  <c:v>81.86251536376372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88.742559371852565</c:v>
+                  <c:v>85.000050635020585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92.312418472795997</c:v>
+                  <c:v>89.701542551865217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1365,36 +1340,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$C$18:$C$26</c:f>
+              <c:f>Мужчины!$D$18:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>90.624553340501222</c:v>
+                  <c:v>82.073333772544416</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.874965980522177</c:v>
+                  <c:v>78.106611185190175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.735024393648459</c:v>
+                  <c:v>74.390241663702852</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.207330348189728</c:v>
+                  <c:v>74.587915526938204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.853205090564856</c:v>
+                  <c:v>75.668657760236883</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.588026115253513</c:v>
+                  <c:v>79.182090686140967</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85.738268708144517</c:v>
+                  <c:v>81.767413769572826</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>87.927637860831268</c:v>
+                  <c:v>84.929557853178636</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91.677918165347975</c:v>
+                  <c:v>89.691385188686766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1475,36 +1450,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$F$2:$F$10</c:f>
+              <c:f>Мужчины!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>79.269039079697947</c:v>
+                  <c:v>58.088891293071995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.791609925177795</c:v>
+                  <c:v>48.044935264040298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.60690439050434</c:v>
+                  <c:v>42.235345562297418</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.296069630611299</c:v>
+                  <c:v>43.411049350307529</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.384951045605114</c:v>
+                  <c:v>45.502586100248458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.855331228959386</c:v>
+                  <c:v>48.799674052471055</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.993357814274269</c:v>
+                  <c:v>52.383641549972054</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73.387321668798094</c:v>
+                  <c:v>63.620261428770696</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84.387997561464644</c:v>
+                  <c:v>78.710212707448392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1585,36 +1560,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$F$18:$F$26</c:f>
+              <c:f>Мужчины!$G$18:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>78.624305831642587</c:v>
+                  <c:v>59.087168261321033</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.869189548091882</c:v>
+                  <c:v>49.813663075458201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.069040497079143</c:v>
+                  <c:v>43.745047252098438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.150968211927768</c:v>
+                  <c:v>44.521183227607125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.406504581308731</c:v>
+                  <c:v>45.939930605480697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.640105429652614</c:v>
+                  <c:v>48.763657968572794</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.379931277000424</c:v>
+                  <c:v>52.270148548678357</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72.065131397182085</c:v>
+                  <c:v>64.060250635259621</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.693262273937862</c:v>
+                  <c:v>78.301609118355572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1631,11 +1606,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528200832"/>
-        <c:axId val="528202008"/>
+        <c:axId val="417104344"/>
+        <c:axId val="417106304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="528200832"/>
+        <c:axId val="417104344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,12 +1650,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1689,26 +1669,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1747,7 +1707,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528202008"/>
+        <c:crossAx val="417106304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1755,7 +1715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="528202008"/>
+        <c:axId val="417106304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1796,17 +1756,30 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ИБПО,</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> %</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1815,26 +1788,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1867,7 +1820,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528200832"/>
+        <c:crossAx val="417104344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1886,10 +1839,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17042454068241469"/>
+          <c:h val="0.7766437737556785"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1952,7 +1905,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1992,29 +1945,54 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
-              <a:t>Внешнее и внутреннее</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внешнее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>мужчины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2023,26 +2001,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2051,10 +2009,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2133,36 +2091,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$D$2:$D$10</c:f>
+              <c:f>Мужчины!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>81.602454412495803</c:v>
+                  <c:v>88.782428789006389</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.252076269816513</c:v>
+                  <c:v>87.487277892717344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.300619818311787</c:v>
+                  <c:v>86.694005843436443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.697105659108502</c:v>
+                  <c:v>86.434939349241191</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.354346144035077</c:v>
+                  <c:v>88.678658106798807</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79.145319056290063</c:v>
+                  <c:v>91.584834578742047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.86251536376372</c:v>
+                  <c:v>93.754554651172285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85.000050635020585</c:v>
+                  <c:v>95.273576680197408</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.701542551865217</c:v>
+                  <c:v>96.943705074017629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2242,36 +2200,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$D$18:$D$26</c:f>
+              <c:f>Мужчины!$B$18:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>82.073333772544416</c:v>
+                  <c:v>89.688628651288084</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.106611185190175</c:v>
+                  <c:v>88.556639729776293</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.390241663702852</c:v>
+                  <c:v>88.060600686219047</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.587915526938204</c:v>
+                  <c:v>87.805901719234384</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.668657760236883</c:v>
+                  <c:v>89.719103984623061</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79.182090686140967</c:v>
+                  <c:v>92.532197418956088</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.767413769572826</c:v>
+                  <c:v>94.640091402970356</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.929557853178636</c:v>
+                  <c:v>96.140752803572283</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.691385188686766</c:v>
+                  <c:v>97.641428821577264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2352,36 +2310,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$G$2:$G$10</c:f>
+              <c:f>Мужчины!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>58.088891293071995</c:v>
+                  <c:v>68.494460313437884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.044935264040298</c:v>
+                  <c:v>61.435790007389926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.235345562297418</c:v>
+                  <c:v>61.283099601114039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.411049350307529</c:v>
+                  <c:v>62.966212262634997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.502586100248458</c:v>
+                  <c:v>67.345513039320096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.799674052471055</c:v>
+                  <c:v>74.069311628400214</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.383641549972054</c:v>
+                  <c:v>78.774556097186434</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63.620261428770696</c:v>
+                  <c:v>82.701086971968522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78.710212707448392</c:v>
+                  <c:v>92.125836500021606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2462,36 +2420,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$G$18:$G$26</c:f>
+              <c:f>Мужчины!$E$18:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>59.087168261321033</c:v>
+                  <c:v>70.395633549991288</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.813663075458201</c:v>
+                  <c:v>64.290079708779544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.745047252098438</c:v>
+                  <c:v>63.943737947116098</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.521183227607125</c:v>
+                  <c:v>65.512137878805063</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.939930605480697</c:v>
+                  <c:v>69.697790541323513</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.763657968572794</c:v>
+                  <c:v>76.000645425607601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.270148548678357</c:v>
+                  <c:v>81.364172561319805</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.060250635259621</c:v>
+                  <c:v>85.224025230975343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78.301609118355572</c:v>
+                  <c:v>93.64911266133069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2508,11 +2466,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528201616"/>
-        <c:axId val="528202400"/>
+        <c:axId val="417106696"/>
+        <c:axId val="417101992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="528201616"/>
+        <c:axId val="417106696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2552,12 +2510,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2566,26 +2529,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2624,7 +2567,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528202400"/>
+        <c:crossAx val="417101992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2632,7 +2575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="528202400"/>
+        <c:axId val="417101992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -2673,8 +2616,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1"/>
-                  <a:t>ИБПО,</a:t>
+                  <a:t>,</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
@@ -2684,6 +2635,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2692,26 +2644,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2744,7 +2676,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528201616"/>
+        <c:crossAx val="417106696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2763,10 +2695,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.16876830471097479"/>
+          <c:h val="0.78043078469733373"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2829,7 +2761,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2869,26 +2801,34 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
-              <a:t>Внешнее</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внешнее и внутреннее облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
-              <a:t>облучение</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
-              <a:t>женщины</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>мужчины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2901,26 +2841,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2929,10 +2849,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3011,36 +2931,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$B$2:$B$10</c:f>
+              <c:f>Мужчины!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>86.145367231552413</c:v>
+                  <c:v>81.602454412495803</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.394588117051256</c:v>
+                  <c:v>77.252076269816513</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.406945515832149</c:v>
+                  <c:v>73.300619818311787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.037669675817384</c:v>
+                  <c:v>73.697105659108502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.442663414373413</c:v>
+                  <c:v>75.354346144035077</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.028215424406071</c:v>
+                  <c:v>79.145319056290063</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.207201928949402</c:v>
+                  <c:v>81.86251536376372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91.083365157303064</c:v>
+                  <c:v>85.000050635020585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94.064508920635703</c:v>
+                  <c:v>89.701542551865217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3120,36 +3040,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$B$18:$B$26</c:f>
+              <c:f>Мужчины!$D$18:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>86.529647709520049</c:v>
+                  <c:v>82.073333772544416</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.781374813563559</c:v>
+                  <c:v>78.106611185190175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.303128077359204</c:v>
+                  <c:v>74.390241663702852</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.802009601030235</c:v>
+                  <c:v>74.587915526938204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.938541948636143</c:v>
+                  <c:v>75.668657760236883</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.6921891972884</c:v>
+                  <c:v>79.182090686140967</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.100000102564223</c:v>
+                  <c:v>81.767413769572826</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92.720331267945738</c:v>
+                  <c:v>84.929557853178636</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95.371764689240862</c:v>
+                  <c:v>89.691385188686766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3230,36 +3150,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$E$2:$E$10</c:f>
+              <c:f>Мужчины!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>70.802432634910673</c:v>
+                  <c:v>58.088891293071995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.763231944913954</c:v>
+                  <c:v>48.044935264040298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.218636997741726</c:v>
+                  <c:v>42.235345562297418</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.296481263660311</c:v>
+                  <c:v>43.411049350307529</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.715571692861431</c:v>
+                  <c:v>45.502586100248458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.869867559085776</c:v>
+                  <c:v>48.799674052471055</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.273748106309426</c:v>
+                  <c:v>52.383641549972054</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.29896452577286</c:v>
+                  <c:v>63.620261428770696</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93.559670068333446</c:v>
+                  <c:v>78.710212707448392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3340,36 +3260,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$E$18:$E$26</c:f>
+              <c:f>Мужчины!$G$18:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>71.413674615198133</c:v>
+                  <c:v>59.087168261321033</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.18899376640455</c:v>
+                  <c:v>49.813663075458201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.622212663970899</c:v>
+                  <c:v>43.745047252098438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78.813287572608047</c:v>
+                  <c:v>44.521183227607125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78.055178422580411</c:v>
+                  <c:v>45.939930605480697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79.706789859502052</c:v>
+                  <c:v>48.763657968572794</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82.574482382443051</c:v>
+                  <c:v>52.270148548678357</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78.375067664889443</c:v>
+                  <c:v>64.060250635259621</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94.775394381012731</c:v>
+                  <c:v>78.301609118355572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3386,11 +3306,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528191816"/>
-        <c:axId val="528196520"/>
+        <c:axId val="417107480"/>
+        <c:axId val="417100424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="528191816"/>
+        <c:axId val="417107480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3430,7 +3350,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
@@ -3445,26 +3369,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3503,7 +3407,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528196520"/>
+        <c:crossAx val="417100424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3511,11 +3415,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="528196520"/>
+        <c:axId val="417100424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3553,14 +3456,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ИБПО,</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> %</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3573,26 +3488,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3625,7 +3520,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528191816"/>
+        <c:crossAx val="417107480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -3644,10 +3539,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17042454068241469"/>
+          <c:h val="0.7766437737556785"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3710,7 +3605,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3750,28 +3645,50 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
-              <a:t>Внутреннее</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внешнее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
               <a:t>женщины</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -3786,26 +3703,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3814,10 +3711,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.6702676260780242E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72400263811478316"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3855,7 +3752,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:f>Женщины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3896,36 +3793,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$C$2:$C$10</c:f>
+              <c:f>Женщины!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>86.941479576900832</c:v>
+                  <c:v>86.145367231552413</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.028776564140045</c:v>
+                  <c:v>93.394588117051256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.284593284809034</c:v>
+                  <c:v>90.406945515832149</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82.12819016346252</c:v>
+                  <c:v>94.037669675817384</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.408649058989084</c:v>
+                  <c:v>92.442663414373413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79.124228642441707</c:v>
+                  <c:v>94.028215424406071</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77.900934979239352</c:v>
+                  <c:v>94.207201928949402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.897118008212104</c:v>
+                  <c:v>91.083365157303064</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.570501226101015</c:v>
+                  <c:v>94.064508920635703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3964,7 +3861,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:f>Женщины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4005,36 +3902,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$C$18:$C$26</c:f>
+              <c:f>Женщины!$B$18:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>87.029486087222438</c:v>
+                  <c:v>86.529647709520049</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.509913227588257</c:v>
+                  <c:v>93.781374813563559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.424171372161652</c:v>
+                  <c:v>91.303128077359204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.184267897237135</c:v>
+                  <c:v>94.802009601030235</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.838231094811604</c:v>
+                  <c:v>92.938541948636143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.585714125003648</c:v>
+                  <c:v>94.6921891972884</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79.740275738833731</c:v>
+                  <c:v>95.100000102564223</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.965029242446661</c:v>
+                  <c:v>92.720331267945738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>83.175837973126306</c:v>
+                  <c:v>95.371764689240862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4074,7 +3971,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:f>Женщины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4115,36 +4012,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$F$2:$F$10</c:f>
+              <c:f>Женщины!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>80.052641423703363</c:v>
+                  <c:v>70.802432634910673</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.892658368174423</c:v>
+                  <c:v>83.763231944913954</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.55010969893938</c:v>
+                  <c:v>68.218636997741726</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.130390720020742</c:v>
+                  <c:v>76.296481263660311</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.225251470670045</c:v>
+                  <c:v>76.715571692861431</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.180687244881909</c:v>
+                  <c:v>77.869867559085776</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.355814304038375</c:v>
+                  <c:v>80.273748106309426</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.15378766387667</c:v>
+                  <c:v>74.29896452577286</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.484579347783693</c:v>
+                  <c:v>93.559670068333446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4184,7 +4081,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:f>Женщины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4225,36 +4122,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$F$18:$F$26</c:f>
+              <c:f>Женщины!$E$18:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>80.160892674508091</c:v>
+                  <c:v>71.413674615198133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.752225070976962</c:v>
+                  <c:v>84.18899376640455</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.000607438854949</c:v>
+                  <c:v>71.622212663970899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.842373144064844</c:v>
+                  <c:v>78.813287572608047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.333275909644691</c:v>
+                  <c:v>78.055178422580411</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.067626757146925</c:v>
+                  <c:v>79.706789859502052</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.805559243800765</c:v>
+                  <c:v>82.574482382443051</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.747855137999125</c:v>
+                  <c:v>78.375067664889443</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>83.380345794392213</c:v>
+                  <c:v>94.775394381012731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4271,11 +4168,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528187504"/>
-        <c:axId val="528192208"/>
+        <c:axId val="417087488"/>
+        <c:axId val="417083568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="528187504"/>
+        <c:axId val="417087488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4315,7 +4212,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
@@ -4330,26 +4231,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4388,7 +4269,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528192208"/>
+        <c:crossAx val="417083568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4396,10 +4277,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="528192208"/>
+        <c:axId val="417083568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4437,14 +4319,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ИБПО,</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> %</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4457,26 +4351,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4509,7 +4383,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528187504"/>
+        <c:crossAx val="417087488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -4528,10 +4402,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17376268262674568"/>
+          <c:h val="0.76777615587074255"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4594,7 +4468,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4634,28 +4508,50 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
-              <a:t>Внешнее и внутреннее</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внутреннее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
               <a:t>женщины</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -4670,26 +4566,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4698,10 +4574,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.6707527663910924E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72399788977688651"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4739,7 +4615,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:f>Женщины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4780,36 +4656,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$D$2:$D$10</c:f>
+              <c:f>Женщины!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>76.276004221029211</c:v>
+                  <c:v>86.941479576900832</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.205385429146133</c:v>
+                  <c:v>85.028776564140045</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.715175489512319</c:v>
+                  <c:v>75.284593284809034</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78.063093217197675</c:v>
+                  <c:v>82.12819016346252</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71.915982854833644</c:v>
+                  <c:v>76.408649058989084</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.337533920060011</c:v>
+                  <c:v>79.124228642441707</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.338905820208609</c:v>
+                  <c:v>77.900934979239352</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.959866771620781</c:v>
+                  <c:v>80.897118008212104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>76.67104299303567</c:v>
+                  <c:v>80.570501226101015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4848,7 +4724,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:f>Женщины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4889,36 +4765,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$D$18:$D$26</c:f>
+              <c:f>Женщины!$C$18:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>76.645390562301856</c:v>
+                  <c:v>87.029486087222438</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.921494223756213</c:v>
+                  <c:v>85.509913227588257</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.238056990451071</c:v>
+                  <c:v>76.424171372161652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.555579391149521</c:v>
+                  <c:v>83.184267897237135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.491448097888764</c:v>
+                  <c:v>77.838231094811604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.102162522180947</c:v>
+                  <c:v>80.585714125003648</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.592375890550372</c:v>
+                  <c:v>79.740275738833731</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77.890658465201383</c:v>
+                  <c:v>82.965029242446661</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79.947512766424239</c:v>
+                  <c:v>83.175837973126306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4958,7 +4834,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:f>Женщины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4999,36 +4875,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$G$2:$G$10</c:f>
+              <c:f>Женщины!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>60.184387080017451</c:v>
+                  <c:v>80.052641423703363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.214491575556345</c:v>
+                  <c:v>66.892658368174423</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.495871699416583</c:v>
+                  <c:v>54.55010969893938</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.077822132913305</c:v>
+                  <c:v>62.130390720020742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.581116208896631</c:v>
+                  <c:v>50.225251470670045</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.924688563920235</c:v>
+                  <c:v>58.180687244881909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.599592760771301</c:v>
+                  <c:v>51.355814304038375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.501526672087813</c:v>
+                  <c:v>64.15378766387667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>76.258158907975286</c:v>
+                  <c:v>80.484579347783693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5068,7 +4944,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:f>Женщины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -5109,36 +4985,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$G$18:$G$26</c:f>
+              <c:f>Женщины!$F$18:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>60.687538864490072</c:v>
+                  <c:v>80.160892674508091</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.104384885898206</c:v>
+                  <c:v>67.752225070976962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.831092487845716</c:v>
+                  <c:v>56.000607438854949</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.490355730235251</c:v>
+                  <c:v>63.842373144064844</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.620474510735711</c:v>
+                  <c:v>52.333275909644691</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.098931854628674</c:v>
+                  <c:v>60.067626757146925</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.317798108674396</c:v>
+                  <c:v>53.805559243800765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.365843790013848</c:v>
+                  <c:v>66.747855137999125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79.71496271704072</c:v>
+                  <c:v>83.380345794392213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5155,11 +5031,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528192600"/>
-        <c:axId val="528191424"/>
+        <c:axId val="417078472"/>
+        <c:axId val="417079648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="528192600"/>
+        <c:axId val="417078472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5199,7 +5075,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
@@ -5214,26 +5094,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5272,7 +5132,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528191424"/>
+        <c:crossAx val="417079648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5280,7 +5140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="528191424"/>
+        <c:axId val="417079648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -5321,14 +5181,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ИБПО,</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> %</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5341,26 +5213,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5393,7 +5245,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528192600"/>
+        <c:crossAx val="417078472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -5412,10 +5264,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17043289064522366"/>
+          <c:h val="0.77652463161647511"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5478,3268 +5330,1718 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Суммарное </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3378355795413214E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.72732706164538419"/>
+          <c:h val="0.71929705260737298"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>76.276004221029211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.205385429146133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.715175489512319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.063093217197675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.915982854833644</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.337533920060011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.338905820208609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.959866771620781</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.67104299303567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$D$18:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>76.645390562301856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.921494223756213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.238056990451071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.555579391149521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.491448097888764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.102162522180947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.592375890550372</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.890658465201383</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.947512766424239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>60.184387080017451</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.214491575556345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.495871699416583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.077822132913305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.581116208896631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.924688563920235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.599592760771301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.501526672087813</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.258158907975286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$G$18:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>60.687538864490072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.104384885898206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.831092487845716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.490355730235251</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.620474510735711</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.098931854628674</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.317798108674396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.365843790013848</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.71496271704072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="417086704"/>
+        <c:axId val="417083176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="417086704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417083176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="417083176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417086704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17542664844797023"/>
+          <c:h val="0.77324456542744979"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внешнее и внутреннее </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3378355795413214E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.72732706164538419"/>
+          <c:h val="0.71929705260737298"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>76.276004221029211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.205385429146133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.715175489512319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.063093217197675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.915982854833644</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.337533920060011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.338905820208609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.959866771620781</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.67104299303567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$D$18:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>76.645390562301856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.921494223756213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.238056990451071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.555579391149521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.491448097888764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.102162522180947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.592375890550372</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.890658465201383</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.947512766424239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>60.184387080017451</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.214491575556345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.495871699416583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.077822132913305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.581116208896631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.924688563920235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.599592760771301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.501526672087813</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.258158907975286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$G$18:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>60.687538864490072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.104384885898206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.831092487845716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.490355730235251</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.620474510735711</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.098931854628674</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.317798108674396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.365843790013848</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.71496271704072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="417077688"/>
+        <c:axId val="417083960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="417077688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417083960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="417083960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417077688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17542664844797023"/>
+          <c:h val="0.77324456542744979"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8747,116 +7049,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>153081</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>181657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>14970</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>48307</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>91170</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>153081</xdr:rowOff>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85972</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8881,14 +7082,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>181657</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>5692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>14970</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>14535</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8913,14 +7114,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>48307</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>91170</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>102113</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8936,6 +7137,171 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4082</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>15289</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52326</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Диаграмма 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>31797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>20289</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Диаграмма 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>29690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>42925</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>32370</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Диаграмма 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>707571</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>717096</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>165965</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Диаграмма 17"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9286,11 +7652,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="6.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" customWidth="1"/>
+    <col min="5" max="7" width="6.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -9905,11 +8277,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="6.21875" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
